--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999661502566687</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991630212991075</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999898826489426</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999891515592383</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999968823898643</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15972495677492e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007812828781643232</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I2" t="n">
-        <v>2.101103240432085e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.021984259210227e-06</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.561543749821156e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003541687142633354</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00562114308372854</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00016247876799</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005860446782173174</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P2" t="n">
-        <v>78.7248809603096</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q2" t="n">
-        <v>114.0722798814874</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_1</t>
+          <t>model_10_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999721453339149</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991595869284153</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999889557186765</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997943846339793</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999957768052823</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G3" t="n">
-        <v>2.600110811193635e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007844887124539401</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I3" t="n">
-        <v>2.29360186726975e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.937012628273554e-06</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.115307247771652e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003399896459784765</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005099128171750181</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000133702397209</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00531620861467206</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P3" t="n">
-        <v>79.11474280232225</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.4621417235001</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_2</t>
+          <t>model_10_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999768920212737</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991561321079458</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999871224457578</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996442769524341</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999939851323778</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G4" t="n">
-        <v>2.15702838179994e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007877136357131515</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I4" t="n">
-        <v>2.674323624216622e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>3.351111585861344e-06</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.012717605038983e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003285472844693623</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004644381962974126</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000110918297886</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004842102918333983</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>79.48838787930517</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.835786800483</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_3</t>
+          <t>model_10_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999805989325989</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991528493868386</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999845555898006</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994444135716973</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999915734764224</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G5" t="n">
-        <v>1.811004481041896e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007907779117720239</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>3.207390959602253e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>5.233937271066175e-06</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.220664115334215e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003193400167322785</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004255589831083225</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000093125123525</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004436759100477823</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>79.8380876234506</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.1854865446284</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_4</t>
+          <t>model_10_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999834689682309</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991495178373833</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999814703430999</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992071000322419</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999887021705361</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G6" t="n">
-        <v>1.543099252804462e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007938877669503583</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>3.848114188811802e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>7.469564557497769e-06</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.658839373154785e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000311716915975254</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003928230203036047</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000079348952492</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004095463095336825</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>80.15826513818502</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.5056640593628</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_5</t>
+          <t>model_10_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999856450916321</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991462844262753</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999779347123823</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989354593793922</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999854146823755</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G7" t="n">
-        <v>1.339967685374382e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000796906014289353</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>4.582370133432424e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.002857259811852e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>7.305471365775471e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003057169857458756</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003660556904863496</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000068903560166</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003816394390700956</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>80.44055993338088</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.7879588545587</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_6</t>
+          <t>model_10_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999872790553616</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991430928268603</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999974138813212</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9986498020992383</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999819414252684</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G8" t="n">
-        <v>1.187444343510116e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007998852322481564</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>5.370676875175235e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.27196251674129e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>9.045151021294068e-06</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003003627846902865</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003445931432153165</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000061060534265</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003592631867281368</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>80.68224415552999</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>116.0296430767078</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_7</t>
+          <t>model_10_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999988481225459</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991399807107402</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999702278632481</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9983569438248618</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999783765986442</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G9" t="n">
-        <v>1.075227041821517e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008027902560402155</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>6.182876589889348e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.547851516060794e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.083069587524864e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002955316731691467</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003279065479403418</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000055290117797</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003418662085462923</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>80.88078724799222</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.22818616917</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_8</t>
+          <t>model_10_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999989353878396</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991369394718472</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999663104905551</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9980710246833508</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999748756964236</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G10" t="n">
-        <v>9.937687206596627e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008056291190518167</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>6.996410133663659e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.817203461146441e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.258422237256403e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002909716104072892</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003152409745987445</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000051101383699</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00328661435526192</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>81.03835247952321</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>116.385751400701</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_9</t>
+          <t>model_10_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999989967831746</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991339521985014</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999624180128694</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977951675542814</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999714745787457</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G11" t="n">
-        <v>9.364588703851286e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008084176075939789</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>7.804773650184315e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>2.077076423439042e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.428776894228737e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002866827241523653</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003060161548652503</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000048154407619</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003190438961186336</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>81.15715028293639</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.5045492041142</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_10</t>
+          <t>model_10_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999903955338122</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991310224878441</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999586673722833</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9975405121989139</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999683022475397</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G12" t="n">
-        <v>8.965347599015429e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008111523638931111</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>8.583681394355239e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>2.316976120018516e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.58767212972702e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002824076437941936</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002994219029900022</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000046101437702</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00312168913289073</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>81.24428735752502</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.5916862787028</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_11</t>
+          <t>model_10_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999906704207889</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991282786915592</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999550810637415</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9973015771556922</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999965311818319</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G13" t="n">
-        <v>8.708752672293566e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008137135772864257</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>9.328461767768885e-06</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>2.542066396593852e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.73745628668537e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002784598405460756</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00295105958467354</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000044781980213</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003076692300728588</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>81.30236396750112</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.6497628886789</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999908152387005</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991257662641099</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.99995164612375</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9970711062669968</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999624323664266</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G14" t="n">
-        <v>8.573571508678629e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008160588180275042</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>1.004180694143245e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>2.759182962584151e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.881681828363698e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002749936626297367</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002928066172182355</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000044086854238</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003052720011064728</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>81.33365233339755</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.6810512545754</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_13</t>
+          <t>model_10_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999908841090387</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991233933848076</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999484557344085</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9968631486186086</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999598153275393</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G15" t="n">
-        <v>8.509284071014286e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008182737966988637</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>1.07043654852272e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.955090787407594e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.012763667965156e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002716288848224103</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002917067717934276</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000043756276614</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003041253329849369</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>81.34870549376673</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.6961044149445</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_14</t>
+          <t>model_10_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999908913328927</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991211731321566</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999945486356659</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9966725807628121</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999574076406829</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G16" t="n">
-        <v>8.502540920460488e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008203463050907168</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>1.132102583199132e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.134616447558724e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.133359515378928e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002684551157854718</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002915911679125499</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000043721602115</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003040048076075172</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>81.35029101464067</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.6976899358185</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_15</t>
+          <t>model_10_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999908595591718</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991190959885269</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999427255589228</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9965027889034788</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999552385726804</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G17" t="n">
-        <v>8.53220029421791e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008222852274929709</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>1.189436968819519e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>3.294569948151519e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.242003458485518e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000265429607128919</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00292099303220975</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000043874115975</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003045345752880071</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>81.34332656396798</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.6907254851458</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_16</t>
+          <t>model_10_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999908020114728</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991171614617939</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999401824815453</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9963524807516961</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999532978656697</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G18" t="n">
-        <v>8.585918545097805e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008240910232823831</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>1.24224988485155e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.436168698171955e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.339209291511752e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002625688926504333</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002930173808001465</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00004415034493</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003054917373304065</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>81.33077415030205</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.6781730714799</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_17</t>
+          <t>model_10_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999907193807831</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991153855047377</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999378280186506</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9962146338806005</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999515134465458</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G19" t="n">
-        <v>8.663050666859764e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008257488012388146</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>1.291145782498834e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>3.566028219494615e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.428587000996725e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002599679607687453</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002943306077671801</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000044546972241</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003068608710881813</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>81.31288725284564</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.6602861740235</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_18</t>
+          <t>model_10_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999906163848462</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991137704253046</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999356602706462</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9960860950206422</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999498552680284</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G20" t="n">
-        <v>8.759192852913422e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008272564069958204</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>1.336164111215589e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>3.68711906974659e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.511641590481089e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002576188632384354</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0029595933593846</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000045041352738</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003085589375896446</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>81.29081359467901</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.6382125158568</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_19</t>
+          <t>model_10_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999905064396575</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991122996269224</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999336873549634</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9959706324393092</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999483604498782</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G21" t="n">
-        <v>8.861821860624163e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008286293327250192</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>1.377136293666255e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>3.795891328582815e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.586513811124535e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002554754360852784</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002976881230520318</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000045569089644</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003103613227497239</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>81.26751637375159</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.6149152949294</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_20</t>
+          <t>model_10_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999903945532522</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991109508892169</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999318825160304</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9958675083890836</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999470165076152</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G22" t="n">
-        <v>8.966262908654998e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008298883201703674</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>1.414617971518371e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>3.893039995743008e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.653828983630689e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002534724826032125</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002994371872138629</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000046106144389</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003121848481939861</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>81.2440831796259</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.5914821008037</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_21</t>
+          <t>model_10_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999902792939656</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991097279742832</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999302358137486</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9957726473448304</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999457830541596</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G23" t="n">
-        <v>9.073852393477702e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008310298575811283</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>1.448815574039194e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.982404445592135e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.715610009815665e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002516731102425531</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003012283584504902</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000046659388965</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003140522732983922</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>81.22022728765768</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.5676262088355</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_22</t>
+          <t>model_10_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999990167740768</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991086071731226</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999287369337877</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9956882547277323</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F24" t="n">
-        <v>0.99994467869113</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G24" t="n">
-        <v>9.177982406793761e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008320760762671332</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>1.479943302284887e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>4.061907047083334e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.770925174684111e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002500160566911811</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003029518510719775</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000047194844314</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003158491385688978</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>81.19740631776472</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.5448052389425</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_23</t>
+          <t>model_10_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999900629017674</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991075757947665</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999273746652636</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9956141890392164</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999436997637502</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G25" t="n">
-        <v>9.275845011974894e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008330388226902344</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>1.508233976336593e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>4.131681099846726e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.81995753809166e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002484570883037572</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003045627195172596</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000047698071516</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00317528585018853</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>81.17619369441665</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>116.5235926155945</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999899619880778</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066399530369</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999926133996291</v>
+        <v>0.9999667256716471</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9955473204758133</v>
+        <v>0.9999582066285156</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999428137271192</v>
+        <v>0.9999748410774238</v>
       </c>
       <c r="G26" t="n">
-        <v>9.370043511596248e-06</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339123898661136</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>1.533999352904828e-05</v>
+        <v>7.214053222947768e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>4.194675055139586e-05</v>
+        <v>4.311640580786074e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.864337204022207e-05</v>
+        <v>2.516522951540425e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002470717534391753</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003061052680303991</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000048182457227</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003191368030157125</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>81.15598563602229</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>116.5033845572001</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
